--- a/biology/Zoologie/Cryptosyringida/Cryptosyringida.xlsx
+++ b/biology/Zoologie/Cryptosyringida/Cryptosyringida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptosyringida est une super-classe obsolète d'échinodermes.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette super-classe regroupait tous les échinodermes éleuthérozoaires actuels à l'exclusion des étoiles de mer (Asteroidea). Le caractère discriminant était le fait que chez les classes des oursins, ophiures et holothuries, pendant le développement les nerfs et canaux radiaires sont recouverts par du tissu, contrairement aux étoiles. Ce groupe a été proposé par Andrew Smith en 1984[1], mais a été contredite par la plupart des analyses génétiques plus récentes[2], 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette super-classe regroupait tous les échinodermes éleuthérozoaires actuels à l'exclusion des étoiles de mer (Asteroidea). Le caractère discriminant était le fait que chez les classes des oursins, ophiures et holothuries, pendant le développement les nerfs et canaux radiaires sont recouverts par du tissu, contrairement aux étoiles. Ce groupe a été proposé par Andrew Smith en 1984, mais a été contredite par la plupart des analyses génétiques plus récentes, 
 Le groupe des Cryptosyringida est donc désormais considéré comme obsolète par de nombreuses taxinomies modernes (comme le sous-embranchement des Eleutherozoa), et notamment par le World Register of Marine Species (qui ne divise pas les échinodermes en super-classes).
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (1 mai 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (1 mai 2010) :
 Echinoidea Leske, 1778
 Holothuroidea de Blainville, 1834
 Ophiuroidea Gray, 1840
